--- a/engajamento_cadernos_tipomaterial5.xlsx
+++ b/engajamento_cadernos_tipomaterial5.xlsx
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.2458002857819832</v>
+        <v>0.3921007115659704</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.5193798449612402</v>
+        <v>0.2244505373841501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.4281004489337822</v>
+        <v>0.5373564881718573</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.1882354537209265</v>
+        <v>0.4391317600812851</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.3577782335653679</v>
+        <v>0.5602820546308499</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.2006786609514755</v>
+        <v>0.4281684744334564</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.3082037121407999</v>
+        <v>0.5188885972004412</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.1135343551995548</v>
+        <v>0.2406766632537068</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.3374546137462782</v>
+        <v>0.2969811255454097</v>
       </c>
     </row>
   </sheetData>
